--- a/Problems/HW01/HEIS/Q5.xlsx
+++ b/Problems/HW01/HEIS/Q5.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:R65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,111 +462,3851 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Type</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Province</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>HeadEducationLevel</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
+      <c r="G1" s="1" t="n"/>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Income</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="n"/>
+      <c r="K1" s="1" t="n"/>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>HeadCount</t>
         </is>
       </c>
+      <c r="O1" s="1" t="n"/>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>37951</v>
-      </c>
-      <c r="B2" t="n">
-        <v>37951</v>
-      </c>
-      <c r="C2" t="n">
-        <v>37951</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
-        <v>2.12713762483202</v>
-      </c>
-      <c r="B3" t="n">
-        <v>1197130319.186846</v>
-      </c>
-      <c r="C3" t="n">
-        <v>3.332665805907618</v>
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr"/>
+      <c r="C2" s="1" t="inlineStr"/>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>min</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>max</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>mean</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>std</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>count</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>2.038687486010622</v>
-      </c>
-      <c r="B4" t="n">
-        <v>1016061952.907111</v>
-      </c>
-      <c r="C4" t="n">
-        <v>1.44266893458618</v>
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Alborz</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" t="n">
+        <v>9</v>
+      </c>
+      <c r="F4" t="n">
+        <v>2.013282732447818</v>
+      </c>
+      <c r="G4" t="n">
+        <v>1.909007576101732</v>
+      </c>
+      <c r="H4" t="n">
+        <v>527</v>
+      </c>
+      <c r="I4" t="n">
+        <v>219732388</v>
+      </c>
+      <c r="J4" t="n">
+        <v>9131075000</v>
+      </c>
+      <c r="K4" t="n">
+        <v>1589118253.889943</v>
+      </c>
+      <c r="L4" t="n">
+        <v>829296900.8745962</v>
+      </c>
+      <c r="M4" t="n">
+        <v>527</v>
+      </c>
+      <c r="N4" t="n">
+        <v>1</v>
+      </c>
+      <c r="O4" t="n">
+        <v>9</v>
+      </c>
+      <c r="P4" t="n">
+        <v>3.149905123339658</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>1.397415794790096</v>
+      </c>
+      <c r="R4" t="n">
+        <v>527</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
-      </c>
-      <c r="B5" t="n">
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Ardabil</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" t="n">
+        <v>7</v>
+      </c>
+      <c r="F5" t="n">
+        <v>1.335456475583864</v>
+      </c>
+      <c r="G5" t="n">
+        <v>1.530538687575529</v>
+      </c>
+      <c r="H5" t="n">
+        <v>471</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-67771224</v>
+      </c>
+      <c r="J5" t="n">
+        <v>4236991940</v>
+      </c>
+      <c r="K5" t="n">
+        <v>840763638.6857749</v>
+      </c>
+      <c r="L5" t="n">
+        <v>586155353.0589975</v>
+      </c>
+      <c r="M5" t="n">
+        <v>471</v>
+      </c>
+      <c r="N5" t="n">
+        <v>1</v>
+      </c>
+      <c r="O5" t="n">
+        <v>10</v>
+      </c>
+      <c r="P5" t="n">
+        <v>3.218683651804671</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>1.374908572483863</v>
+      </c>
+      <c r="R5" t="n">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Bushehr</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" t="n">
+        <v>9</v>
+      </c>
+      <c r="F6" t="n">
+        <v>2.396946564885496</v>
+      </c>
+      <c r="G6" t="n">
+        <v>2.019709345512732</v>
+      </c>
+      <c r="H6" t="n">
+        <v>524</v>
+      </c>
+      <c r="I6" t="n">
+        <v>78850380</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4652730000</v>
+      </c>
+      <c r="K6" t="n">
+        <v>1182798661.475191</v>
+      </c>
+      <c r="L6" t="n">
+        <v>719094637.6571107</v>
+      </c>
+      <c r="M6" t="n">
+        <v>524</v>
+      </c>
+      <c r="N6" t="n">
+        <v>1</v>
+      </c>
+      <c r="O6" t="n">
+        <v>9</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3.797709923664122</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>1.54632559721338</v>
+      </c>
+      <c r="R6" t="n">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Chaharmahal_and_Bakhtiari</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" t="n">
+        <v>9</v>
+      </c>
+      <c r="F7" t="n">
+        <v>1.776180698151951</v>
+      </c>
+      <c r="G7" t="n">
+        <v>2.033972625719951</v>
+      </c>
+      <c r="H7" t="n">
+        <v>487</v>
+      </c>
+      <c r="I7" t="n">
+        <v>116429361</v>
+      </c>
+      <c r="J7" t="n">
+        <v>5924054304</v>
+      </c>
+      <c r="K7" t="n">
+        <v>1168487004.837782</v>
+      </c>
+      <c r="L7" t="n">
+        <v>753599720.8016351</v>
+      </c>
+      <c r="M7" t="n">
+        <v>487</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1</v>
+      </c>
+      <c r="O7" t="n">
+        <v>9</v>
+      </c>
+      <c r="P7" t="n">
+        <v>3.609856262833675</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>1.64045605544071</v>
+      </c>
+      <c r="R7" t="n">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>East_Azerbaijan</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>7</v>
+      </c>
+      <c r="F8" t="n">
+        <v>1.303254437869823</v>
+      </c>
+      <c r="G8" t="n">
+        <v>1.439564152269289</v>
+      </c>
+      <c r="H8" t="n">
+        <v>676</v>
+      </c>
+      <c r="I8" t="n">
+        <v>53960000</v>
+      </c>
+      <c r="J8" t="n">
+        <v>7905770000</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1023357948.362426</v>
+      </c>
+      <c r="L8" t="n">
+        <v>787566642.0833778</v>
+      </c>
+      <c r="M8" t="n">
+        <v>676</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1</v>
+      </c>
+      <c r="O8" t="n">
+        <v>10</v>
+      </c>
+      <c r="P8" t="n">
+        <v>3.255917159763313</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>1.398796483415731</v>
+      </c>
+      <c r="R8" t="n">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Fars</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" t="n">
+        <v>7</v>
+      </c>
+      <c r="F9" t="n">
+        <v>1.567331670822943</v>
+      </c>
+      <c r="G9" t="n">
+        <v>1.549380323866439</v>
+      </c>
+      <c r="H9" t="n">
+        <v>802</v>
+      </c>
+      <c r="I9" t="n">
+        <v>76664388</v>
+      </c>
+      <c r="J9" t="n">
+        <v>8916904388</v>
+      </c>
+      <c r="K9" t="n">
+        <v>1048557776.869077</v>
+      </c>
+      <c r="L9" t="n">
+        <v>866930637.3846847</v>
+      </c>
+      <c r="M9" t="n">
+        <v>802</v>
+      </c>
+      <c r="N9" t="n">
+        <v>1</v>
+      </c>
+      <c r="O9" t="n">
+        <v>9</v>
+      </c>
+      <c r="P9" t="n">
+        <v>3.470074812967581</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>1.429046719401168</v>
+      </c>
+      <c r="R9" t="n">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Gilan</t>
+        </is>
+      </c>
+      <c r="D10" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" t="n">
+        <v>9</v>
+      </c>
+      <c r="F10" t="n">
+        <v>1.493975903614458</v>
+      </c>
+      <c r="G10" t="n">
+        <v>1.533628626070532</v>
+      </c>
+      <c r="H10" t="n">
+        <v>415</v>
+      </c>
+      <c r="I10" t="n">
+        <v>94992000</v>
+      </c>
+      <c r="J10" t="n">
+        <v>4140970000</v>
+      </c>
+      <c r="K10" t="n">
+        <v>946913355.7590362</v>
+      </c>
+      <c r="L10" t="n">
+        <v>584915194.7718147</v>
+      </c>
+      <c r="M10" t="n">
+        <v>415</v>
+      </c>
+      <c r="N10" t="n">
+        <v>1</v>
+      </c>
+      <c r="O10" t="n">
+        <v>6</v>
+      </c>
+      <c r="P10" t="n">
+        <v>2.580722891566265</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>1.134702692692325</v>
+      </c>
+      <c r="R10" t="n">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Golestan</t>
+        </is>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9</v>
+      </c>
+      <c r="F11" t="n">
+        <v>1.570796460176991</v>
+      </c>
+      <c r="G11" t="n">
+        <v>1.677068277017278</v>
+      </c>
+      <c r="H11" t="n">
+        <v>678</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-177566000</v>
+      </c>
+      <c r="J11" t="n">
+        <v>8993128000</v>
+      </c>
+      <c r="K11" t="n">
+        <v>932587773.280236</v>
+      </c>
+      <c r="L11" t="n">
+        <v>855693549.0673903</v>
+      </c>
+      <c r="M11" t="n">
+        <v>678</v>
+      </c>
+      <c r="N11" t="n">
+        <v>1</v>
+      </c>
+      <c r="O11" t="n">
+        <v>10</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3.443952802359882</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>1.492160808894505</v>
+      </c>
+      <c r="R11" t="n">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Hamadan</t>
+        </is>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" t="n">
+        <v>9</v>
+      </c>
+      <c r="F12" t="n">
+        <v>1.322635135135135</v>
+      </c>
+      <c r="G12" t="n">
+        <v>1.448131235925201</v>
+      </c>
+      <c r="H12" t="n">
+        <v>592</v>
+      </c>
+      <c r="I12" t="n">
+        <v>-87282448</v>
+      </c>
+      <c r="J12" t="n">
+        <v>36866100000</v>
+      </c>
+      <c r="K12" t="n">
+        <v>1086028909.79054</v>
+      </c>
+      <c r="L12" t="n">
+        <v>1982866821.80374</v>
+      </c>
+      <c r="M12" t="n">
+        <v>592</v>
+      </c>
+      <c r="N12" t="n">
+        <v>1</v>
+      </c>
+      <c r="O12" t="n">
+        <v>7</v>
+      </c>
+      <c r="P12" t="n">
+        <v>3.288851351351351</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>1.354072892862858</v>
+      </c>
+      <c r="R12" t="n">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Hormozgan</t>
+        </is>
+      </c>
+      <c r="D13" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" t="n">
+        <v>7</v>
+      </c>
+      <c r="F13" t="n">
+        <v>1.549019607843137</v>
+      </c>
+      <c r="G13" t="n">
+        <v>1.616641581843878</v>
+      </c>
+      <c r="H13" t="n">
+        <v>663</v>
+      </c>
+      <c r="I13" t="n">
+        <v>39748388</v>
+      </c>
+      <c r="J13" t="n">
+        <v>4154115328</v>
+      </c>
+      <c r="K13" t="n">
+        <v>662378597.9743589</v>
+      </c>
+      <c r="L13" t="n">
+        <v>505374822.2515241</v>
+      </c>
+      <c r="M13" t="n">
+        <v>663</v>
+      </c>
+      <c r="N13" t="n">
+        <v>1</v>
+      </c>
+      <c r="O13" t="n">
+        <v>16</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3.669683257918552</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>1.8215977820538</v>
+      </c>
+      <c r="R13" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Ilam</t>
+        </is>
+      </c>
+      <c r="D14" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" t="n">
+        <v>7</v>
+      </c>
+      <c r="F14" t="n">
+        <v>1.268924302788845</v>
+      </c>
+      <c r="G14" t="n">
+        <v>1.602577277508402</v>
+      </c>
+      <c r="H14" t="n">
+        <v>502</v>
+      </c>
+      <c r="I14" t="n">
+        <v>75940000</v>
+      </c>
+      <c r="J14" t="n">
+        <v>5057197552</v>
+      </c>
+      <c r="K14" t="n">
+        <v>714594139.6055777</v>
+      </c>
+      <c r="L14" t="n">
+        <v>499149413.9760794</v>
+      </c>
+      <c r="M14" t="n">
+        <v>502</v>
+      </c>
+      <c r="N14" t="n">
+        <v>1</v>
+      </c>
+      <c r="O14" t="n">
+        <v>8</v>
+      </c>
+      <c r="P14" t="n">
+        <v>3.336653386454183</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>1.466938083457203</v>
+      </c>
+      <c r="R14" t="n">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Isfahan</t>
+        </is>
+      </c>
+      <c r="D15" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" t="n">
+        <v>9</v>
+      </c>
+      <c r="F15" t="n">
+        <v>1.699376947040498</v>
+      </c>
+      <c r="G15" t="n">
+        <v>1.790501786394203</v>
+      </c>
+      <c r="H15" t="n">
+        <v>642</v>
+      </c>
+      <c r="I15" t="n">
+        <v>126274388</v>
+      </c>
+      <c r="J15" t="n">
+        <v>14338380000</v>
+      </c>
+      <c r="K15" t="n">
+        <v>1210912722.090343</v>
+      </c>
+      <c r="L15" t="n">
+        <v>805303867.7934712</v>
+      </c>
+      <c r="M15" t="n">
+        <v>642</v>
+      </c>
+      <c r="N15" t="n">
+        <v>1</v>
+      </c>
+      <c r="O15" t="n">
+        <v>7</v>
+      </c>
+      <c r="P15" t="n">
+        <v>2.96417445482866</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>1.252875639213225</v>
+      </c>
+      <c r="R15" t="n">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Kerman</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" t="n">
+        <v>9</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2.038681948424069</v>
+      </c>
+      <c r="G16" t="n">
+        <v>1.880182684197934</v>
+      </c>
+      <c r="H16" t="n">
+        <v>698</v>
+      </c>
+      <c r="I16" t="n">
+        <v>48114388</v>
+      </c>
+      <c r="J16" t="n">
+        <v>2943904388</v>
+      </c>
+      <c r="K16" t="n">
+        <v>853709076.0916905</v>
+      </c>
+      <c r="L16" t="n">
+        <v>397228521.1899629</v>
+      </c>
+      <c r="M16" t="n">
+        <v>698</v>
+      </c>
+      <c r="N16" t="n">
+        <v>1</v>
+      </c>
+      <c r="O16" t="n">
+        <v>8</v>
+      </c>
+      <c r="P16" t="n">
+        <v>3.300859598853868</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>1.393168145263376</v>
+      </c>
+      <c r="R16" t="n">
+        <v>698</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Kermanshah</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" t="n">
+        <v>9</v>
+      </c>
+      <c r="F17" t="n">
+        <v>1.47275641025641</v>
+      </c>
+      <c r="G17" t="n">
+        <v>1.605336635300963</v>
+      </c>
+      <c r="H17" t="n">
+        <v>624</v>
+      </c>
+      <c r="I17" t="n">
+        <v>-399068100</v>
+      </c>
+      <c r="J17" t="n">
+        <v>4648546900</v>
+      </c>
+      <c r="K17" t="n">
+        <v>771211111.9198718</v>
+      </c>
+      <c r="L17" t="n">
+        <v>568434540.8555667</v>
+      </c>
+      <c r="M17" t="n">
+        <v>624</v>
+      </c>
+      <c r="N17" t="n">
+        <v>1</v>
+      </c>
+      <c r="O17" t="n">
+        <v>9</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3.379807692307693</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>1.43951658157889</v>
+      </c>
+      <c r="R17" t="n">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Khuzestan</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" t="n">
+        <v>7</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1.462196861626248</v>
+      </c>
+      <c r="G18" t="n">
+        <v>1.631059347625294</v>
+      </c>
+      <c r="H18" t="n">
+        <v>701</v>
+      </c>
+      <c r="I18" t="n">
+        <v>82519388</v>
+      </c>
+      <c r="J18" t="n">
+        <v>5908100000</v>
+      </c>
+      <c r="K18" t="n">
+        <v>971563409.5235378</v>
+      </c>
+      <c r="L18" t="n">
+        <v>652042243.8067999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>701</v>
+      </c>
+      <c r="N18" t="n">
+        <v>1</v>
+      </c>
+      <c r="O18" t="n">
+        <v>14</v>
+      </c>
+      <c r="P18" t="n">
+        <v>4.229671897289586</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>1.709646088913633</v>
+      </c>
+      <c r="R18" t="n">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Kohgiluyeh_and_Boyer_Ahmad</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" t="n">
+        <v>8</v>
+      </c>
+      <c r="F19" t="n">
+        <v>1.783505154639175</v>
+      </c>
+      <c r="G19" t="n">
+        <v>1.962085392354901</v>
+      </c>
+      <c r="H19" t="n">
+        <v>582</v>
+      </c>
+      <c r="I19" t="n">
+        <v>106984388</v>
+      </c>
+      <c r="J19" t="n">
+        <v>5354036940</v>
+      </c>
+      <c r="K19" t="n">
+        <v>1009292059.845361</v>
+      </c>
+      <c r="L19" t="n">
+        <v>634816514.5479902</v>
+      </c>
+      <c r="M19" t="n">
+        <v>582</v>
+      </c>
+      <c r="N19" t="n">
+        <v>1</v>
+      </c>
+      <c r="O19" t="n">
+        <v>10</v>
+      </c>
+      <c r="P19" t="n">
+        <v>3.719931271477663</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>1.465230296967417</v>
+      </c>
+      <c r="R19" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Kurdistan</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>6</v>
+      </c>
+      <c r="F20" t="n">
+        <v>1.107594936708861</v>
+      </c>
+      <c r="G20" t="n">
+        <v>1.135770170345786</v>
+      </c>
+      <c r="H20" t="n">
+        <v>316</v>
+      </c>
+      <c r="I20" t="n">
+        <v>-234578060</v>
+      </c>
+      <c r="J20" t="n">
+        <v>3899480776</v>
+      </c>
+      <c r="K20" t="n">
+        <v>709797094.3829114</v>
+      </c>
+      <c r="L20" t="n">
+        <v>467586102.3005271</v>
+      </c>
+      <c r="M20" t="n">
+        <v>316</v>
+      </c>
+      <c r="N20" t="n">
+        <v>1</v>
+      </c>
+      <c r="O20" t="n">
+        <v>7</v>
+      </c>
+      <c r="P20" t="n">
+        <v>3.465189873417721</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>1.336445283421535</v>
+      </c>
+      <c r="R20" t="n">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Lorestan</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>7</v>
+      </c>
+      <c r="F21" t="n">
+        <v>1.274165202108963</v>
+      </c>
+      <c r="G21" t="n">
+        <v>1.562788130318965</v>
+      </c>
+      <c r="H21" t="n">
+        <v>569</v>
+      </c>
+      <c r="I21" t="n">
+        <v>78155000</v>
+      </c>
+      <c r="J21" t="n">
+        <v>4215317000</v>
+      </c>
+      <c r="K21" t="n">
+        <v>707067978.9525484</v>
+      </c>
+      <c r="L21" t="n">
+        <v>554556405.9175935</v>
+      </c>
+      <c r="M21" t="n">
+        <v>569</v>
+      </c>
+      <c r="N21" t="n">
+        <v>1</v>
+      </c>
+      <c r="O21" t="n">
+        <v>9</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3.40597539543058</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>1.520528357285402</v>
+      </c>
+      <c r="R21" t="n">
+        <v>569</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Markazi</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>9</v>
+      </c>
+      <c r="F22" t="n">
+        <v>1.243757431629013</v>
+      </c>
+      <c r="G22" t="n">
+        <v>1.566399316036947</v>
+      </c>
+      <c r="H22" t="n">
+        <v>841</v>
+      </c>
+      <c r="I22" t="n">
+        <v>91823164</v>
+      </c>
+      <c r="J22" t="n">
+        <v>4906475000</v>
+      </c>
+      <c r="K22" t="n">
+        <v>912048429.254459</v>
+      </c>
+      <c r="L22" t="n">
+        <v>658887312.9844651</v>
+      </c>
+      <c r="M22" t="n">
+        <v>841</v>
+      </c>
+      <c r="N22" t="n">
+        <v>1</v>
+      </c>
+      <c r="O22" t="n">
+        <v>8</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2.948870392390012</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>1.295046159718224</v>
+      </c>
+      <c r="R22" t="n">
+        <v>841</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Mazandaran</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>0</v>
+      </c>
+      <c r="E23" t="n">
+        <v>9</v>
+      </c>
+      <c r="F23" t="n">
+        <v>2.133574007220217</v>
+      </c>
+      <c r="G23" t="n">
+        <v>1.891312356384733</v>
+      </c>
+      <c r="H23" t="n">
+        <v>554</v>
+      </c>
+      <c r="I23" t="n">
+        <v>88310000</v>
+      </c>
+      <c r="J23" t="n">
+        <v>10908812000</v>
+      </c>
+      <c r="K23" t="n">
+        <v>1622356961.357401</v>
+      </c>
+      <c r="L23" t="n">
+        <v>1205236573.723042</v>
+      </c>
+      <c r="M23" t="n">
+        <v>554</v>
+      </c>
+      <c r="N23" t="n">
+        <v>1</v>
+      </c>
+      <c r="O23" t="n">
+        <v>8</v>
+      </c>
+      <c r="P23" t="n">
+        <v>2.963898916967509</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>1.171757754698055</v>
+      </c>
+      <c r="R23" t="n">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>North_Khorasan</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>0</v>
+      </c>
+      <c r="E24" t="n">
+        <v>9</v>
+      </c>
+      <c r="F24" t="n">
+        <v>1.23768115942029</v>
+      </c>
+      <c r="G24" t="n">
+        <v>1.494557271119001</v>
+      </c>
+      <c r="H24" t="n">
+        <v>690</v>
+      </c>
+      <c r="I24" t="n">
+        <v>45327000</v>
+      </c>
+      <c r="J24" t="n">
+        <v>3604368000</v>
+      </c>
+      <c r="K24" t="n">
+        <v>585106890.5797101</v>
+      </c>
+      <c r="L24" t="n">
+        <v>392069910.5700148</v>
+      </c>
+      <c r="M24" t="n">
+        <v>690</v>
+      </c>
+      <c r="N24" t="n">
+        <v>1</v>
+      </c>
+      <c r="O24" t="n">
+        <v>9</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3.272463768115942</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>1.428903794719375</v>
+      </c>
+      <c r="R24" t="n">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Qazvin</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>0</v>
+      </c>
+      <c r="E25" t="n">
+        <v>9</v>
+      </c>
+      <c r="F25" t="n">
+        <v>1.483394833948339</v>
+      </c>
+      <c r="G25" t="n">
+        <v>1.801288588620012</v>
+      </c>
+      <c r="H25" t="n">
+        <v>542</v>
+      </c>
+      <c r="I25" t="n">
+        <v>139155000</v>
+      </c>
+      <c r="J25" t="n">
+        <v>6172630031</v>
+      </c>
+      <c r="K25" t="n">
+        <v>1099973888.555351</v>
+      </c>
+      <c r="L25" t="n">
+        <v>722910376.0515229</v>
+      </c>
+      <c r="M25" t="n">
+        <v>542</v>
+      </c>
+      <c r="N25" t="n">
+        <v>1</v>
+      </c>
+      <c r="O25" t="n">
+        <v>8</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3.033210332103321</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>1.30362938130886</v>
+      </c>
+      <c r="R25" t="n">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Qom</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>7</v>
+      </c>
+      <c r="F26" t="n">
+        <v>1.275590551181102</v>
+      </c>
+      <c r="G26" t="n">
+        <v>1.359240298771789</v>
+      </c>
+      <c r="H26" t="n">
+        <v>381</v>
+      </c>
+      <c r="I26" t="n">
+        <v>142840000</v>
+      </c>
+      <c r="J26" t="n">
+        <v>5354379000</v>
+      </c>
+      <c r="K26" t="n">
+        <v>1000204100.787402</v>
+      </c>
+      <c r="L26" t="n">
+        <v>586944430.3130683</v>
+      </c>
+      <c r="M26" t="n">
+        <v>381</v>
+      </c>
+      <c r="N26" t="n">
+        <v>1</v>
+      </c>
+      <c r="O26" t="n">
+        <v>8</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3.317585301837271</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>1.38846012629449</v>
+      </c>
+      <c r="R26" t="n">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Razavi_Khorasan</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>0</v>
+      </c>
+      <c r="E27" t="n">
+        <v>9</v>
+      </c>
+      <c r="F27" t="n">
+        <v>1.406134969325153</v>
+      </c>
+      <c r="G27" t="n">
+        <v>1.601047463164007</v>
+      </c>
+      <c r="H27" t="n">
+        <v>815</v>
+      </c>
+      <c r="I27" t="n">
+        <v>44487000</v>
+      </c>
+      <c r="J27" t="n">
+        <v>6992718000</v>
+      </c>
+      <c r="K27" t="n">
+        <v>748243469.7374233</v>
+      </c>
+      <c r="L27" t="n">
+        <v>546032320.1349895</v>
+      </c>
+      <c r="M27" t="n">
+        <v>815</v>
+      </c>
+      <c r="N27" t="n">
+        <v>1</v>
+      </c>
+      <c r="O27" t="n">
+        <v>8</v>
+      </c>
+      <c r="P27" t="n">
+        <v>3.337423312883435</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>1.518197798858337</v>
+      </c>
+      <c r="R27" t="n">
+        <v>815</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Semnan</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>0</v>
+      </c>
+      <c r="E28" t="n">
+        <v>6</v>
+      </c>
+      <c r="F28" t="n">
+        <v>1.540856031128405</v>
+      </c>
+      <c r="G28" t="n">
+        <v>1.621999117486596</v>
+      </c>
+      <c r="H28" t="n">
+        <v>514</v>
+      </c>
+      <c r="I28" t="n">
+        <v>66234388</v>
+      </c>
+      <c r="J28" t="n">
+        <v>2825960000</v>
+      </c>
+      <c r="K28" t="n">
+        <v>795461139.5758755</v>
+      </c>
+      <c r="L28" t="n">
+        <v>413955488.8649356</v>
+      </c>
+      <c r="M28" t="n">
+        <v>514</v>
+      </c>
+      <c r="N28" t="n">
+        <v>1</v>
+      </c>
+      <c r="O28" t="n">
+        <v>9</v>
+      </c>
+      <c r="P28" t="n">
+        <v>2.994163424124514</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>1.428601253146573</v>
+      </c>
+      <c r="R28" t="n">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Sistan_and_Baluchestan</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>0</v>
+      </c>
+      <c r="E29" t="n">
+        <v>9</v>
+      </c>
+      <c r="F29" t="n">
+        <v>1.101208459214502</v>
+      </c>
+      <c r="G29" t="n">
+        <v>1.52845874395441</v>
+      </c>
+      <c r="H29" t="n">
+        <v>662</v>
+      </c>
+      <c r="I29" t="n">
+        <v>32164388</v>
+      </c>
+      <c r="J29" t="n">
+        <v>3491221000</v>
+      </c>
+      <c r="K29" t="n">
+        <v>420438536.1087613</v>
+      </c>
+      <c r="L29" t="n">
+        <v>364788599.8367704</v>
+      </c>
+      <c r="M29" t="n">
+        <v>662</v>
+      </c>
+      <c r="N29" t="n">
+        <v>1</v>
+      </c>
+      <c r="O29" t="n">
+        <v>15</v>
+      </c>
+      <c r="P29" t="n">
+        <v>3.921450151057402</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>2.220082799513203</v>
+      </c>
+      <c r="R29" t="n">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>South_Khorasan</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>0</v>
+      </c>
+      <c r="E30" t="n">
+        <v>9</v>
+      </c>
+      <c r="F30" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="G30" t="n">
+        <v>1.61808891320729</v>
+      </c>
+      <c r="H30" t="n">
+        <v>700</v>
+      </c>
+      <c r="I30" t="n">
+        <v>35028776</v>
+      </c>
+      <c r="J30" t="n">
+        <v>3987875622</v>
+      </c>
+      <c r="K30" t="n">
+        <v>624289290.1157143</v>
+      </c>
+      <c r="L30" t="n">
+        <v>531038520.236018</v>
+      </c>
+      <c r="M30" t="n">
+        <v>700</v>
+      </c>
+      <c r="N30" t="n">
+        <v>1</v>
+      </c>
+      <c r="O30" t="n">
+        <v>10</v>
+      </c>
+      <c r="P30" t="n">
+        <v>2.998571428571429</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>1.520013633808939</v>
+      </c>
+      <c r="R30" t="n">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Tehran</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>0</v>
+      </c>
+      <c r="E31" t="n">
+        <v>7</v>
+      </c>
+      <c r="F31" t="n">
+        <v>1.603854389721627</v>
+      </c>
+      <c r="G31" t="n">
+        <v>1.551486247221892</v>
+      </c>
+      <c r="H31" t="n">
+        <v>467</v>
+      </c>
+      <c r="I31" t="n">
+        <v>179850000</v>
+      </c>
+      <c r="J31" t="n">
+        <v>4080000000</v>
+      </c>
+      <c r="K31" t="n">
+        <v>1454475132.847966</v>
+      </c>
+      <c r="L31" t="n">
+        <v>608543505.4274011</v>
+      </c>
+      <c r="M31" t="n">
+        <v>467</v>
+      </c>
+      <c r="N31" t="n">
+        <v>1</v>
+      </c>
+      <c r="O31" t="n">
+        <v>10</v>
+      </c>
+      <c r="P31" t="n">
+        <v>3.531049250535332</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>1.486924257148365</v>
+      </c>
+      <c r="R31" t="n">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>West_Azerbaijan</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>0</v>
+      </c>
+      <c r="E32" t="n">
+        <v>6</v>
+      </c>
+      <c r="F32" t="n">
+        <v>1.290378006872852</v>
+      </c>
+      <c r="G32" t="n">
+        <v>1.433509779233286</v>
+      </c>
+      <c r="H32" t="n">
+        <v>582</v>
+      </c>
+      <c r="I32" t="n">
+        <v>94824388</v>
+      </c>
+      <c r="J32" t="n">
+        <v>11612928776</v>
+      </c>
+      <c r="K32" t="n">
+        <v>1138610319.503436</v>
+      </c>
+      <c r="L32" t="n">
+        <v>880610763.1908553</v>
+      </c>
+      <c r="M32" t="n">
+        <v>582</v>
+      </c>
+      <c r="N32" t="n">
+        <v>1</v>
+      </c>
+      <c r="O32" t="n">
+        <v>11</v>
+      </c>
+      <c r="P32" t="n">
+        <v>4.042955326460481</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>1.727536483240464</v>
+      </c>
+      <c r="R32" t="n">
+        <v>582</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Yazd</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>0</v>
+      </c>
+      <c r="E33" t="n">
+        <v>9</v>
+      </c>
+      <c r="F33" t="n">
+        <v>2.03822629969419</v>
+      </c>
+      <c r="G33" t="n">
+        <v>1.977687305637184</v>
+      </c>
+      <c r="H33" t="n">
+        <v>654</v>
+      </c>
+      <c r="I33" t="n">
         <v>-26250920000</v>
       </c>
-      <c r="C5" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>1</v>
-      </c>
-      <c r="B6" t="n">
-        <v>622129000</v>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>1</v>
-      </c>
-      <c r="B7" t="n">
-        <v>1014374388</v>
-      </c>
-      <c r="C7" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>4</v>
-      </c>
-      <c r="B8" t="n">
-        <v>1517505500</v>
-      </c>
-      <c r="C8" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>9</v>
-      </c>
-      <c r="B9" t="n">
+      <c r="J33" t="n">
+        <v>13986000000</v>
+      </c>
+      <c r="K33" t="n">
+        <v>1400015072.211009</v>
+      </c>
+      <c r="L33" t="n">
+        <v>1583929101.356284</v>
+      </c>
+      <c r="M33" t="n">
+        <v>654</v>
+      </c>
+      <c r="N33" t="n">
+        <v>1</v>
+      </c>
+      <c r="O33" t="n">
+        <v>7</v>
+      </c>
+      <c r="P33" t="n">
+        <v>3.096330275229358</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1.380753280360383</v>
+      </c>
+      <c r="R33" t="n">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Zanjan</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
+      <c r="E34" t="n">
+        <v>9</v>
+      </c>
+      <c r="F34" t="n">
+        <v>1.216374269005848</v>
+      </c>
+      <c r="G34" t="n">
+        <v>1.457056144988629</v>
+      </c>
+      <c r="H34" t="n">
+        <v>513</v>
+      </c>
+      <c r="I34" t="n">
+        <v>46762000</v>
+      </c>
+      <c r="J34" t="n">
+        <v>11969658000</v>
+      </c>
+      <c r="K34" t="n">
+        <v>1215249188.565302</v>
+      </c>
+      <c r="L34" t="n">
+        <v>928067456.4232055</v>
+      </c>
+      <c r="M34" t="n">
+        <v>513</v>
+      </c>
+      <c r="N34" t="n">
+        <v>1</v>
+      </c>
+      <c r="O34" t="n">
+        <v>8</v>
+      </c>
+      <c r="P34" t="n">
+        <v>3.169590643274854</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>1.336276904280052</v>
+      </c>
+      <c r="R34" t="n">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Alborz</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
+      <c r="E35" t="n">
+        <v>9</v>
+      </c>
+      <c r="F35" t="n">
+        <v>2.968215158924205</v>
+      </c>
+      <c r="G35" t="n">
+        <v>2.127427562109824</v>
+      </c>
+      <c r="H35" t="n">
+        <v>409</v>
+      </c>
+      <c r="I35" t="n">
+        <v>185200000</v>
+      </c>
+      <c r="J35" t="n">
+        <v>6642999999</v>
+      </c>
+      <c r="K35" t="n">
+        <v>1939456369.601467</v>
+      </c>
+      <c r="L35" t="n">
+        <v>950710029.8042021</v>
+      </c>
+      <c r="M35" t="n">
+        <v>409</v>
+      </c>
+      <c r="N35" t="n">
+        <v>1</v>
+      </c>
+      <c r="O35" t="n">
+        <v>10</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3.286063569682152</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>1.242162253723901</v>
+      </c>
+      <c r="R35" t="n">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Ardabil</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
+      <c r="E36" t="n">
+        <v>9</v>
+      </c>
+      <c r="F36" t="n">
+        <v>2.5146771037182</v>
+      </c>
+      <c r="G36" t="n">
+        <v>2.222716903869957</v>
+      </c>
+      <c r="H36" t="n">
+        <v>511</v>
+      </c>
+      <c r="I36" t="n">
+        <v>78194388</v>
+      </c>
+      <c r="J36" t="n">
         <v>41446928000</v>
       </c>
-      <c r="C9" t="n">
-        <v>16</v>
+      <c r="K36" t="n">
+        <v>1229972878.44227</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2183738941.195833</v>
+      </c>
+      <c r="M36" t="n">
+        <v>511</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1</v>
+      </c>
+      <c r="O36" t="n">
+        <v>7</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3.158512720156556</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.13254915459903</v>
+      </c>
+      <c r="R36" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Bushehr</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
+      <c r="E37" t="n">
+        <v>9</v>
+      </c>
+      <c r="F37" t="n">
+        <v>3.387610619469027</v>
+      </c>
+      <c r="G37" t="n">
+        <v>2.210593961748022</v>
+      </c>
+      <c r="H37" t="n">
+        <v>565</v>
+      </c>
+      <c r="I37" t="n">
+        <v>146400000</v>
+      </c>
+      <c r="J37" t="n">
+        <v>10636000000</v>
+      </c>
+      <c r="K37" t="n">
+        <v>1497162627.936283</v>
+      </c>
+      <c r="L37" t="n">
+        <v>947125441.1845496</v>
+      </c>
+      <c r="M37" t="n">
+        <v>565</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="n">
+        <v>10</v>
+      </c>
+      <c r="P37" t="n">
+        <v>3.757522123893805</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>1.395141348092945</v>
+      </c>
+      <c r="R37" t="n">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Chaharmahal_and_Bakhtiari</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
+      <c r="E38" t="n">
+        <v>9</v>
+      </c>
+      <c r="F38" t="n">
+        <v>2.627092846270929</v>
+      </c>
+      <c r="G38" t="n">
+        <v>2.265743614585985</v>
+      </c>
+      <c r="H38" t="n">
+        <v>657</v>
+      </c>
+      <c r="I38" t="n">
+        <v>79597536</v>
+      </c>
+      <c r="J38" t="n">
+        <v>7232611229</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1561350655.013699</v>
+      </c>
+      <c r="L38" t="n">
+        <v>901449148.8735412</v>
+      </c>
+      <c r="M38" t="n">
+        <v>657</v>
+      </c>
+      <c r="N38" t="n">
+        <v>1</v>
+      </c>
+      <c r="O38" t="n">
+        <v>9</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3.409436834094368</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>1.446643240079603</v>
+      </c>
+      <c r="R38" t="n">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>East_Azerbaijan</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
+      <c r="E39" t="n">
+        <v>8</v>
+      </c>
+      <c r="F39" t="n">
+        <v>2.52891156462585</v>
+      </c>
+      <c r="G39" t="n">
+        <v>2.164648801791185</v>
+      </c>
+      <c r="H39" t="n">
+        <v>588</v>
+      </c>
+      <c r="I39" t="n">
+        <v>98580000</v>
+      </c>
+      <c r="J39" t="n">
+        <v>18200000000</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1466406087.431973</v>
+      </c>
+      <c r="L39" t="n">
+        <v>1267747315.35628</v>
+      </c>
+      <c r="M39" t="n">
+        <v>588</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="n">
+        <v>6</v>
+      </c>
+      <c r="P39" t="n">
+        <v>3.124149659863946</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>1.197624760871858</v>
+      </c>
+      <c r="R39" t="n">
+        <v>588</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Fars</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
+      <c r="E40" t="n">
+        <v>8</v>
+      </c>
+      <c r="F40" t="n">
+        <v>2.826546003016591</v>
+      </c>
+      <c r="G40" t="n">
+        <v>2.10130616491537</v>
+      </c>
+      <c r="H40" t="n">
+        <v>663</v>
+      </c>
+      <c r="I40" t="n">
+        <v>111554388</v>
+      </c>
+      <c r="J40" t="n">
+        <v>34624000000</v>
+      </c>
+      <c r="K40" t="n">
+        <v>1613103218.600302</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1603326449.662148</v>
+      </c>
+      <c r="M40" t="n">
+        <v>663</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="n">
+        <v>8</v>
+      </c>
+      <c r="P40" t="n">
+        <v>3.328808446455505</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>1.295075356596634</v>
+      </c>
+      <c r="R40" t="n">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Gilan</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
+      <c r="E41" t="n">
+        <v>9</v>
+      </c>
+      <c r="F41" t="n">
+        <v>2.670574443141852</v>
+      </c>
+      <c r="G41" t="n">
+        <v>2.008909561770827</v>
+      </c>
+      <c r="H41" t="n">
+        <v>853</v>
+      </c>
+      <c r="I41" t="n">
+        <v>120400000</v>
+      </c>
+      <c r="J41" t="n">
+        <v>6724055000</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1365863688.089097</v>
+      </c>
+      <c r="L41" t="n">
+        <v>728123932.695104</v>
+      </c>
+      <c r="M41" t="n">
+        <v>853</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="n">
+        <v>6</v>
+      </c>
+      <c r="P41" t="n">
+        <v>2.588511137162954</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>1.056262016429798</v>
+      </c>
+      <c r="R41" t="n">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Golestan</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
+      <c r="E42" t="n">
+        <v>9</v>
+      </c>
+      <c r="F42" t="n">
+        <v>2.550939663699308</v>
+      </c>
+      <c r="G42" t="n">
+        <v>2.123449138752981</v>
+      </c>
+      <c r="H42" t="n">
+        <v>1011</v>
+      </c>
+      <c r="I42" t="n">
+        <v>-283322857</v>
+      </c>
+      <c r="J42" t="n">
+        <v>33332000000</v>
+      </c>
+      <c r="K42" t="n">
+        <v>1396246852.877349</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1477268759.001652</v>
+      </c>
+      <c r="M42" t="n">
+        <v>1011</v>
+      </c>
+      <c r="N42" t="n">
+        <v>1</v>
+      </c>
+      <c r="O42" t="n">
+        <v>9</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3.355093966369931</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>1.356875146956751</v>
+      </c>
+      <c r="R42" t="n">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Hamadan</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
+      <c r="E43" t="n">
+        <v>9</v>
+      </c>
+      <c r="F43" t="n">
+        <v>2.448366013071896</v>
+      </c>
+      <c r="G43" t="n">
+        <v>2.093123388696745</v>
+      </c>
+      <c r="H43" t="n">
+        <v>765</v>
+      </c>
+      <c r="I43" t="n">
+        <v>109464388</v>
+      </c>
+      <c r="J43" t="n">
+        <v>13330880716</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1437665127.138562</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1140732976.423683</v>
+      </c>
+      <c r="M43" t="n">
+        <v>765</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="n">
+        <v>7</v>
+      </c>
+      <c r="P43" t="n">
+        <v>3.060130718954248</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>1.213597690595174</v>
+      </c>
+      <c r="R43" t="n">
+        <v>765</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Hormozgan</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
+      <c r="E44" t="n">
+        <v>9</v>
+      </c>
+      <c r="F44" t="n">
+        <v>2.702890173410405</v>
+      </c>
+      <c r="G44" t="n">
+        <v>2.123131742612542</v>
+      </c>
+      <c r="H44" t="n">
+        <v>865</v>
+      </c>
+      <c r="I44" t="n">
+        <v>61780388</v>
+      </c>
+      <c r="J44" t="n">
+        <v>4620324000</v>
+      </c>
+      <c r="K44" t="n">
+        <v>1083908145.09711</v>
+      </c>
+      <c r="L44" t="n">
+        <v>696880072.0818632</v>
+      </c>
+      <c r="M44" t="n">
+        <v>865</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="n">
+        <v>9</v>
+      </c>
+      <c r="P44" t="n">
+        <v>3.371098265895954</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>1.479754365504893</v>
+      </c>
+      <c r="R44" t="n">
+        <v>865</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Ilam</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
+      <c r="E45" t="n">
+        <v>8</v>
+      </c>
+      <c r="F45" t="n">
+        <v>2.67816091954023</v>
+      </c>
+      <c r="G45" t="n">
+        <v>2.354005571809411</v>
+      </c>
+      <c r="H45" t="n">
+        <v>435</v>
+      </c>
+      <c r="I45" t="n">
+        <v>120259388</v>
+      </c>
+      <c r="J45" t="n">
+        <v>6914860000</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1091707774.510345</v>
+      </c>
+      <c r="L45" t="n">
+        <v>660532256.8843616</v>
+      </c>
+      <c r="M45" t="n">
+        <v>435</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1</v>
+      </c>
+      <c r="O45" t="n">
+        <v>11</v>
+      </c>
+      <c r="P45" t="n">
+        <v>3.344827586206896</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>1.295397615300309</v>
+      </c>
+      <c r="R45" t="n">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Isfahan</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
+      <c r="E46" t="n">
+        <v>8</v>
+      </c>
+      <c r="F46" t="n">
+        <v>2.664576802507837</v>
+      </c>
+      <c r="G46" t="n">
+        <v>2.093654701474379</v>
+      </c>
+      <c r="H46" t="n">
+        <v>638</v>
+      </c>
+      <c r="I46" t="n">
+        <v>178860000</v>
+      </c>
+      <c r="J46" t="n">
+        <v>11547224000</v>
+      </c>
+      <c r="K46" t="n">
+        <v>1734814112.051724</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1094302476.136028</v>
+      </c>
+      <c r="M46" t="n">
+        <v>638</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="n">
+        <v>9</v>
+      </c>
+      <c r="P46" t="n">
+        <v>3.061128526645768</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1.203485249766818</v>
+      </c>
+      <c r="R46" t="n">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Kerman</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
+      <c r="E47" t="n">
+        <v>9</v>
+      </c>
+      <c r="F47" t="n">
+        <v>2.504302925989673</v>
+      </c>
+      <c r="G47" t="n">
+        <v>1.992762440071669</v>
+      </c>
+      <c r="H47" t="n">
+        <v>581</v>
+      </c>
+      <c r="I47" t="n">
+        <v>169000000</v>
+      </c>
+      <c r="J47" t="n">
+        <v>4632910000</v>
+      </c>
+      <c r="K47" t="n">
+        <v>1053426946.402754</v>
+      </c>
+      <c r="L47" t="n">
+        <v>472388944.5346581</v>
+      </c>
+      <c r="M47" t="n">
+        <v>581</v>
+      </c>
+      <c r="N47" t="n">
+        <v>1</v>
+      </c>
+      <c r="O47" t="n">
+        <v>9</v>
+      </c>
+      <c r="P47" t="n">
+        <v>3.25645438898451</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>1.347275856888253</v>
+      </c>
+      <c r="R47" t="n">
+        <v>581</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Kermanshah</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
+      <c r="E48" t="n">
+        <v>9</v>
+      </c>
+      <c r="F48" t="n">
+        <v>2.324478178368122</v>
+      </c>
+      <c r="G48" t="n">
+        <v>1.981623864342585</v>
+      </c>
+      <c r="H48" t="n">
+        <v>527</v>
+      </c>
+      <c r="I48" t="n">
+        <v>181094000</v>
+      </c>
+      <c r="J48" t="n">
+        <v>4108030800</v>
+      </c>
+      <c r="K48" t="n">
+        <v>1064034705.305503</v>
+      </c>
+      <c r="L48" t="n">
+        <v>628789878.4644026</v>
+      </c>
+      <c r="M48" t="n">
+        <v>527</v>
+      </c>
+      <c r="N48" t="n">
+        <v>1</v>
+      </c>
+      <c r="O48" t="n">
+        <v>10</v>
+      </c>
+      <c r="P48" t="n">
+        <v>3.390891840607211</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.248174546049061</v>
+      </c>
+      <c r="R48" t="n">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Khuzestan</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
+      <c r="E49" t="n">
+        <v>9</v>
+      </c>
+      <c r="F49" t="n">
+        <v>2.757723577235772</v>
+      </c>
+      <c r="G49" t="n">
+        <v>2.123584338951165</v>
+      </c>
+      <c r="H49" t="n">
+        <v>615</v>
+      </c>
+      <c r="I49" t="n">
+        <v>114630000</v>
+      </c>
+      <c r="J49" t="n">
+        <v>26916000000</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1360937954.972358</v>
+      </c>
+      <c r="L49" t="n">
+        <v>1309569763.421696</v>
+      </c>
+      <c r="M49" t="n">
+        <v>615</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1</v>
+      </c>
+      <c r="O49" t="n">
+        <v>10</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3.767479674796748</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.443704514630128</v>
+      </c>
+      <c r="R49" t="n">
+        <v>615</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Kohgiluyeh_and_Boyer_Ahmad</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>0</v>
+      </c>
+      <c r="E50" t="n">
+        <v>8</v>
+      </c>
+      <c r="F50" t="n">
+        <v>3.28544776119403</v>
+      </c>
+      <c r="G50" t="n">
+        <v>2.288257914903053</v>
+      </c>
+      <c r="H50" t="n">
+        <v>536</v>
+      </c>
+      <c r="I50" t="n">
+        <v>170660000</v>
+      </c>
+      <c r="J50" t="n">
+        <v>5096296000</v>
+      </c>
+      <c r="K50" t="n">
+        <v>1427115066.559701</v>
+      </c>
+      <c r="L50" t="n">
+        <v>747836086.203493</v>
+      </c>
+      <c r="M50" t="n">
+        <v>536</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="n">
+        <v>8</v>
+      </c>
+      <c r="P50" t="n">
+        <v>3.828358208955224</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>1.354955567243264</v>
+      </c>
+      <c r="R50" t="n">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Kurdistan</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>0</v>
+      </c>
+      <c r="E51" t="n">
+        <v>8</v>
+      </c>
+      <c r="F51" t="n">
+        <v>2.287257019438445</v>
+      </c>
+      <c r="G51" t="n">
+        <v>2.099677782131434</v>
+      </c>
+      <c r="H51" t="n">
+        <v>463</v>
+      </c>
+      <c r="I51" t="n">
+        <v>58735000</v>
+      </c>
+      <c r="J51" t="n">
+        <v>14330918000</v>
+      </c>
+      <c r="K51" t="n">
+        <v>1197280375.734341</v>
+      </c>
+      <c r="L51" t="n">
+        <v>987977806.7327536</v>
+      </c>
+      <c r="M51" t="n">
+        <v>463</v>
+      </c>
+      <c r="N51" t="n">
+        <v>1</v>
+      </c>
+      <c r="O51" t="n">
+        <v>8</v>
+      </c>
+      <c r="P51" t="n">
+        <v>3.226781857451404</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>1.258037282023143</v>
+      </c>
+      <c r="R51" t="n">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Lorestan</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>0</v>
+      </c>
+      <c r="E52" t="n">
+        <v>8</v>
+      </c>
+      <c r="F52" t="n">
+        <v>2.384279475982533</v>
+      </c>
+      <c r="G52" t="n">
+        <v>2.141783348746909</v>
+      </c>
+      <c r="H52" t="n">
+        <v>458</v>
+      </c>
+      <c r="I52" t="n">
+        <v>85064388</v>
+      </c>
+      <c r="J52" t="n">
+        <v>5858615000</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1071482624.393013</v>
+      </c>
+      <c r="L52" t="n">
+        <v>692964593.397287</v>
+      </c>
+      <c r="M52" t="n">
+        <v>458</v>
+      </c>
+      <c r="N52" t="n">
+        <v>1</v>
+      </c>
+      <c r="O52" t="n">
+        <v>6</v>
+      </c>
+      <c r="P52" t="n">
+        <v>3.286026200873363</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.22298426813257</v>
+      </c>
+      <c r="R52" t="n">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Markazi</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>0</v>
+      </c>
+      <c r="E53" t="n">
+        <v>9</v>
+      </c>
+      <c r="F53" t="n">
+        <v>2.587734241908007</v>
+      </c>
+      <c r="G53" t="n">
+        <v>2.082853650300357</v>
+      </c>
+      <c r="H53" t="n">
+        <v>587</v>
+      </c>
+      <c r="I53" t="n">
+        <v>155024388</v>
+      </c>
+      <c r="J53" t="n">
+        <v>6108980000</v>
+      </c>
+      <c r="K53" t="n">
+        <v>1418467643.768313</v>
+      </c>
+      <c r="L53" t="n">
+        <v>815762601.3364636</v>
+      </c>
+      <c r="M53" t="n">
+        <v>587</v>
+      </c>
+      <c r="N53" t="n">
+        <v>1</v>
+      </c>
+      <c r="O53" t="n">
+        <v>6</v>
+      </c>
+      <c r="P53" t="n">
+        <v>3.201022146507666</v>
+      </c>
+      <c r="Q53" t="n">
+        <v>1.184570447276096</v>
+      </c>
+      <c r="R53" t="n">
+        <v>587</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Mazandaran</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>0</v>
+      </c>
+      <c r="E54" t="n">
+        <v>9</v>
+      </c>
+      <c r="F54" t="n">
+        <v>2.882217090069284</v>
+      </c>
+      <c r="G54" t="n">
+        <v>2.062110272715036</v>
+      </c>
+      <c r="H54" t="n">
+        <v>433</v>
+      </c>
+      <c r="I54" t="n">
+        <v>195020000</v>
+      </c>
+      <c r="J54" t="n">
+        <v>22780244400</v>
+      </c>
+      <c r="K54" t="n">
+        <v>1885311641.926097</v>
+      </c>
+      <c r="L54" t="n">
+        <v>1723659989.272045</v>
+      </c>
+      <c r="M54" t="n">
+        <v>433</v>
+      </c>
+      <c r="N54" t="n">
+        <v>1</v>
+      </c>
+      <c r="O54" t="n">
+        <v>7</v>
+      </c>
+      <c r="P54" t="n">
+        <v>2.933025404157044</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1.102456995802501</v>
+      </c>
+      <c r="R54" t="n">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>North_Khorasan</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>0</v>
+      </c>
+      <c r="E55" t="n">
+        <v>9</v>
+      </c>
+      <c r="F55" t="n">
+        <v>2.718130311614731</v>
+      </c>
+      <c r="G55" t="n">
+        <v>2.225228630220649</v>
+      </c>
+      <c r="H55" t="n">
+        <v>706</v>
+      </c>
+      <c r="I55" t="n">
+        <v>109142000</v>
+      </c>
+      <c r="J55" t="n">
+        <v>3992885000</v>
+      </c>
+      <c r="K55" t="n">
+        <v>1003723966.628895</v>
+      </c>
+      <c r="L55" t="n">
+        <v>611518961.1445514</v>
+      </c>
+      <c r="M55" t="n">
+        <v>706</v>
+      </c>
+      <c r="N55" t="n">
+        <v>1</v>
+      </c>
+      <c r="O55" t="n">
+        <v>8</v>
+      </c>
+      <c r="P55" t="n">
+        <v>3.169971671388102</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>1.239768566502286</v>
+      </c>
+      <c r="R55" t="n">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Qazvin</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>0</v>
+      </c>
+      <c r="E56" t="n">
+        <v>9</v>
+      </c>
+      <c r="F56" t="n">
+        <v>2.447619047619048</v>
+      </c>
+      <c r="G56" t="n">
+        <v>2.005867062085132</v>
+      </c>
+      <c r="H56" t="n">
+        <v>420</v>
+      </c>
+      <c r="I56" t="n">
+        <v>215292000</v>
+      </c>
+      <c r="J56" t="n">
+        <v>6300000000</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1507210020.735714</v>
+      </c>
+      <c r="L56" t="n">
+        <v>834805468.5843135</v>
+      </c>
+      <c r="M56" t="n">
+        <v>420</v>
+      </c>
+      <c r="N56" t="n">
+        <v>1</v>
+      </c>
+      <c r="O56" t="n">
+        <v>9</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3.283333333333333</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>1.225507866408242</v>
+      </c>
+      <c r="R56" t="n">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Qom</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>0</v>
+      </c>
+      <c r="E57" t="n">
+        <v>9</v>
+      </c>
+      <c r="F57" t="n">
+        <v>2.915851272015656</v>
+      </c>
+      <c r="G57" t="n">
+        <v>2.600671709874681</v>
+      </c>
+      <c r="H57" t="n">
+        <v>511</v>
+      </c>
+      <c r="I57" t="n">
+        <v>178460000</v>
+      </c>
+      <c r="J57" t="n">
+        <v>4194400000</v>
+      </c>
+      <c r="K57" t="n">
+        <v>1221159174.363992</v>
+      </c>
+      <c r="L57" t="n">
+        <v>594823389.9624736</v>
+      </c>
+      <c r="M57" t="n">
+        <v>511</v>
+      </c>
+      <c r="N57" t="n">
+        <v>1</v>
+      </c>
+      <c r="O57" t="n">
+        <v>9</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3.547945205479452</v>
+      </c>
+      <c r="Q57" t="n">
+        <v>1.349346495759753</v>
+      </c>
+      <c r="R57" t="n">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Razavi_Khorasan</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>0</v>
+      </c>
+      <c r="E58" t="n">
+        <v>9</v>
+      </c>
+      <c r="F58" t="n">
+        <v>2.620498614958449</v>
+      </c>
+      <c r="G58" t="n">
+        <v>2.112644916776335</v>
+      </c>
+      <c r="H58" t="n">
+        <v>722</v>
+      </c>
+      <c r="I58" t="n">
+        <v>96190000</v>
+      </c>
+      <c r="J58" t="n">
+        <v>7529718000</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1252246616.799169</v>
+      </c>
+      <c r="L58" t="n">
+        <v>723404604.5362805</v>
+      </c>
+      <c r="M58" t="n">
+        <v>722</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="n">
+        <v>12</v>
+      </c>
+      <c r="P58" t="n">
+        <v>3.394736842105263</v>
+      </c>
+      <c r="Q58" t="n">
+        <v>1.358437954214606</v>
+      </c>
+      <c r="R58" t="n">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Semnan</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>0</v>
+      </c>
+      <c r="E59" t="n">
+        <v>7</v>
+      </c>
+      <c r="F59" t="n">
+        <v>2.738493723849373</v>
+      </c>
+      <c r="G59" t="n">
+        <v>2.091367760587177</v>
+      </c>
+      <c r="H59" t="n">
+        <v>478</v>
+      </c>
+      <c r="I59" t="n">
+        <v>63600000</v>
+      </c>
+      <c r="J59" t="n">
+        <v>3436960000</v>
+      </c>
+      <c r="K59" t="n">
+        <v>1108463308.979079</v>
+      </c>
+      <c r="L59" t="n">
+        <v>464797385.8648477</v>
+      </c>
+      <c r="M59" t="n">
+        <v>478</v>
+      </c>
+      <c r="N59" t="n">
+        <v>1</v>
+      </c>
+      <c r="O59" t="n">
+        <v>6</v>
+      </c>
+      <c r="P59" t="n">
+        <v>3.03347280334728</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>1.255148253662407</v>
+      </c>
+      <c r="R59" t="n">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Sistan_and_Baluchestan</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>0</v>
+      </c>
+      <c r="E60" t="n">
+        <v>9</v>
+      </c>
+      <c r="F60" t="n">
+        <v>2.197297297297297</v>
+      </c>
+      <c r="G60" t="n">
+        <v>2.137744626964239</v>
+      </c>
+      <c r="H60" t="n">
+        <v>740</v>
+      </c>
+      <c r="I60" t="n">
+        <v>48000000</v>
+      </c>
+      <c r="J60" t="n">
+        <v>6630200000</v>
+      </c>
+      <c r="K60" t="n">
+        <v>874081104.0135136</v>
+      </c>
+      <c r="L60" t="n">
+        <v>726161051.1912117</v>
+      </c>
+      <c r="M60" t="n">
+        <v>740</v>
+      </c>
+      <c r="N60" t="n">
+        <v>1</v>
+      </c>
+      <c r="O60" t="n">
+        <v>13</v>
+      </c>
+      <c r="P60" t="n">
+        <v>4.129729729729729</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>1.98558606569549</v>
+      </c>
+      <c r="R60" t="n">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>South_Khorasan</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>0</v>
+      </c>
+      <c r="E61" t="n">
+        <v>9</v>
+      </c>
+      <c r="F61" t="n">
+        <v>2.670245398773006</v>
+      </c>
+      <c r="G61" t="n">
+        <v>2.122986173527644</v>
+      </c>
+      <c r="H61" t="n">
+        <v>652</v>
+      </c>
+      <c r="I61" t="n">
+        <v>72114388</v>
+      </c>
+      <c r="J61" t="n">
+        <v>4538169000</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1168465931.292945</v>
+      </c>
+      <c r="L61" t="n">
+        <v>741439031.0119457</v>
+      </c>
+      <c r="M61" t="n">
+        <v>652</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="n">
+        <v>9</v>
+      </c>
+      <c r="P61" t="n">
+        <v>3.208588957055215</v>
+      </c>
+      <c r="Q61" t="n">
+        <v>1.447298400564738</v>
+      </c>
+      <c r="R61" t="n">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Tehran</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>0</v>
+      </c>
+      <c r="E62" t="n">
+        <v>9</v>
+      </c>
+      <c r="F62" t="n">
+        <v>3.091352859135286</v>
+      </c>
+      <c r="G62" t="n">
+        <v>2.241994796325443</v>
+      </c>
+      <c r="H62" t="n">
+        <v>1434</v>
+      </c>
+      <c r="I62" t="n">
+        <v>51570000</v>
+      </c>
+      <c r="J62" t="n">
+        <v>12091000000</v>
+      </c>
+      <c r="K62" t="n">
+        <v>2174770708.518828</v>
+      </c>
+      <c r="L62" t="n">
+        <v>1198407196.662394</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1434</v>
+      </c>
+      <c r="N62" t="n">
+        <v>1</v>
+      </c>
+      <c r="O62" t="n">
+        <v>13</v>
+      </c>
+      <c r="P62" t="n">
+        <v>3.161087866108787</v>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.293547436563972</v>
+      </c>
+      <c r="R62" t="n">
+        <v>1434</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>West_Azerbaijan</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>0</v>
+      </c>
+      <c r="E63" t="n">
+        <v>8</v>
+      </c>
+      <c r="F63" t="n">
+        <v>2.394990366088632</v>
+      </c>
+      <c r="G63" t="n">
+        <v>2.109011266701302</v>
+      </c>
+      <c r="H63" t="n">
+        <v>519</v>
+      </c>
+      <c r="I63" t="n">
+        <v>67247000</v>
+      </c>
+      <c r="J63" t="n">
+        <v>10110258000</v>
+      </c>
+      <c r="K63" t="n">
+        <v>1432387635.28131</v>
+      </c>
+      <c r="L63" t="n">
+        <v>997211886.6648922</v>
+      </c>
+      <c r="M63" t="n">
+        <v>519</v>
+      </c>
+      <c r="N63" t="n">
+        <v>1</v>
+      </c>
+      <c r="O63" t="n">
+        <v>9</v>
+      </c>
+      <c r="P63" t="n">
+        <v>3.574181117533719</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>1.376087865179022</v>
+      </c>
+      <c r="R63" t="n">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Yazd</t>
+        </is>
+      </c>
+      <c r="D64" t="n">
+        <v>0</v>
+      </c>
+      <c r="E64" t="n">
+        <v>9</v>
+      </c>
+      <c r="F64" t="n">
+        <v>3.051948051948052</v>
+      </c>
+      <c r="G64" t="n">
+        <v>2.258259514830261</v>
+      </c>
+      <c r="H64" t="n">
+        <v>616</v>
+      </c>
+      <c r="I64" t="n">
+        <v>204455000</v>
+      </c>
+      <c r="J64" t="n">
+        <v>21898600000</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1749545058.487013</v>
+      </c>
+      <c r="L64" t="n">
+        <v>1373831888.885619</v>
+      </c>
+      <c r="M64" t="n">
+        <v>616</v>
+      </c>
+      <c r="N64" t="n">
+        <v>1</v>
+      </c>
+      <c r="O64" t="n">
+        <v>8</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.357142857142857</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>1.359954908045255</v>
+      </c>
+      <c r="R64" t="n">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Urban</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Zanjan</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>0</v>
+      </c>
+      <c r="E65" t="n">
+        <v>9</v>
+      </c>
+      <c r="F65" t="n">
+        <v>2.671592775041051</v>
+      </c>
+      <c r="G65" t="n">
+        <v>2.312835521537266</v>
+      </c>
+      <c r="H65" t="n">
+        <v>609</v>
+      </c>
+      <c r="I65" t="n">
+        <v>123710000</v>
+      </c>
+      <c r="J65" t="n">
+        <v>10253593000</v>
+      </c>
+      <c r="K65" t="n">
+        <v>1579647439.021347</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1080336898.589417</v>
+      </c>
+      <c r="M65" t="n">
+        <v>609</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="n">
+        <v>7</v>
+      </c>
+      <c r="P65" t="n">
+        <v>3.241379310344827</v>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.175068056105318</v>
+      </c>
+      <c r="R65" t="n">
+        <v>609</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="I1:M1"/>
+    <mergeCell ref="D1:H1"/>
+    <mergeCell ref="N1:R1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>